--- a/output/StructureDefinition-reproductive-observation.xlsx
+++ b/output/StructureDefinition-reproductive-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/reproductive-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/reproductive-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -1524,7 +1524,7 @@
 </t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/duration-units-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/duration-units-vs</t>
   </si>
   <si>
     <t>Observation.component:duration.dataAbsentReason</t>
@@ -1565,7 +1565,7 @@
     <t>Observation.component:frequency.value[x]</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/symptom-frequency-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/symptom-frequency-vs</t>
   </si>
   <si>
     <t>Observation.component:frequency.dataAbsentReason</t>
@@ -1606,7 +1606,7 @@
     <t>Observation.component:pattern.value[x]</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/ValueSet/symptom-progression-vs</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/ValueSet/symptom-progression-vs</t>
   </si>
   <si>
     <t>Observation.component:pattern.dataAbsentReason</t>
@@ -1944,17 +1944,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.796875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.09375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1963,28 +1963,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="75.234375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.54296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
